--- a/jpcore-r4/feature/swg2-強調文字解除/ValueSet-jp-procedure-codes-dental-vs.xlsx
+++ b/jpcore-r4/feature/swg2-強調文字解除/ValueSet-jp-procedure-codes-dental-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T13:38:42+00:00</t>
+    <t>2022-08-04T13:50:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-強調文字解除/ValueSet-jp-procedure-codes-dental-vs.xlsx
+++ b/jpcore-r4/feature/swg2-強調文字解除/ValueSet-jp-procedure-codes-dental-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T13:50:41+00:00</t>
+    <t>2022-08-04T13:58:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-強調文字解除/ValueSet-jp-procedure-codes-dental-vs.xlsx
+++ b/jpcore-r4/feature/swg2-強調文字解除/ValueSet-jp-procedure-codes-dental-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T13:58:03+00:00</t>
+    <t>2022-08-05T03:34:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-強調文字解除/ValueSet-jp-procedure-codes-dental-vs.xlsx
+++ b/jpcore-r4/feature/swg2-強調文字解除/ValueSet-jp-procedure-codes-dental-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T03:34:35+00:00</t>
+    <t>2022-08-05T12:15:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-強調文字解除/ValueSet-jp-procedure-codes-dental-vs.xlsx
+++ b/jpcore-r4/feature/swg2-強調文字解除/ValueSet-jp-procedure-codes-dental-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T12:15:04+00:00</t>
+    <t>2022-08-06T07:29:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-強調文字解除/ValueSet-jp-procedure-codes-dental-vs.xlsx
+++ b/jpcore-r4/feature/swg2-強調文字解除/ValueSet-jp-procedure-codes-dental-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-06T07:29:40+00:00</t>
+    <t>2022-08-08T01:46:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
